--- a/ope.ed.gov/2010/arrests-noncampus-virginia-colleges-and-universities-crime-2010.xlsx
+++ b/ope.ed.gov/2010/arrests-noncampus-virginia-colleges-and-universities-crime-2010.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Arrests_Noncampus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="arrests-noncampus-virginia-coll" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Argosy University-Washington DC</t>
@@ -487,34 +484,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2010.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>1277.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -522,19 +543,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B3">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
-        <v>1277.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -551,19 +572,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>945.0</v>
+        <v>1816.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -583,13 +604,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
         <v>1816.0</v>
@@ -612,13 +633,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>1816.0</v>
@@ -641,13 +662,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
         <v>1816.0</v>
@@ -667,19 +688,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B8">
-        <v>449931.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
-        <v>1816.0</v>
+        <v>696.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -696,19 +717,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
-        <v>696.0</v>
+        <v>1688.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -725,22 +746,22 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
-        <v>1688.0</v>
+        <v>921.0</v>
       </c>
       <c s="1" r="G10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H10">
         <v>0.0</v>
@@ -754,22 +775,22 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231828.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
-        <v>921.0</v>
+        <v>4916.0</v>
       </c>
       <c s="1" r="G11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H11">
         <v>0.0</v>
@@ -783,19 +804,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
-        <v>4916.0</v>
+        <v>8000.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -815,13 +836,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>8000.0</v>
@@ -844,13 +865,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>8000.0</v>
@@ -873,13 +894,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
         <v>8000.0</v>
@@ -899,19 +920,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231624.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>8000.0</v>
+        <v>1521.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -928,19 +949,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B17">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>1521.0</v>
+        <v>4534.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -957,19 +978,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B18">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>4534.0</v>
+        <v>1537.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -986,19 +1007,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>1537.0</v>
+        <v>790.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1015,19 +1036,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B20">
-        <v>231970.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>790.0</v>
+        <v>759.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1044,19 +1065,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B21">
-        <v>442806.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>759.0</v>
+        <v>1484.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1065,7 +1086,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
@@ -1073,19 +1094,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>1484.0</v>
+        <v>32562.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1094,7 +1115,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1102,19 +1123,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>32562.0</v>
+        <v>7582.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1134,13 +1155,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
         <v>7582.0</v>
@@ -1163,13 +1184,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
         <v>7582.0</v>
@@ -1189,19 +1210,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232195.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>7582.0</v>
+        <v>1058.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1218,28 +1239,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>1058.0</v>
+        <v>5254.0</v>
       </c>
       <c s="1" r="G27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H27">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1247,28 +1268,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232265.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>5254.0</v>
+        <v>19434.0</v>
       </c>
       <c s="1" r="G28">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H28">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1276,19 +1297,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232423.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>19434.0</v>
+        <v>56625.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1305,19 +1326,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B30">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>56625.0</v>
+        <v>4831.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1334,19 +1355,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B31">
-        <v>232566.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>4831.0</v>
+        <v>3572.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1363,19 +1384,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B32">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>3572.0</v>
+        <v>3404.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1392,19 +1413,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B33">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>3404.0</v>
+        <v>5178.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1421,19 +1442,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>5178.0</v>
+        <v>6964.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1450,28 +1471,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>6964.0</v>
+        <v>48996.0</v>
       </c>
       <c s="1" r="G35">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H35">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I35">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
@@ -1482,13 +1503,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
         <v>48996.0</v>
@@ -1497,10 +1518,10 @@
         <v>1.0</v>
       </c>
       <c s="1" r="H36">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I36">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1511,25 +1532,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
         <v>48996.0</v>
       </c>
       <c s="1" r="G37">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H37">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I37">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="38">
@@ -1540,13 +1561,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
         <v>48996.0</v>
@@ -1555,10 +1576,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H38">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I38">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1569,13 +1590,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
         <v>48996.0</v>
@@ -1595,25 +1616,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B40">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>48996.0</v>
+        <v>24466.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
       </c>
       <c s="1" r="H40">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I40">
         <v>0.0</v>
@@ -1624,19 +1645,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B41">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
-        <v>24466.0</v>
+        <v>3289.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -1653,19 +1674,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B42">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>3289.0</v>
+        <v>5551.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -1682,19 +1703,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B43">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>5551.0</v>
+        <v>9007.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -1711,19 +1732,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>9007.0</v>
+        <v>524.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -1740,25 +1761,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B45">
-        <v>233301.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>524.0</v>
+        <v>3679.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
       </c>
       <c s="1" r="H45">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="I45">
         <v>0.0</v>
@@ -1769,25 +1790,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B46">
-        <v>233541.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>3679.0</v>
+        <v>341.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
       </c>
       <c s="1" r="H46">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I46">
         <v>0.0</v>
@@ -1798,19 +1819,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B47">
-        <v>459259.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>341.0</v>
+        <v>6353.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -1827,19 +1848,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B48">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>6353.0</v>
+        <v>3755.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -1856,19 +1877,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B49">
-        <v>233648.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>3755.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -1885,25 +1906,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B50">
-        <v>233666.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>40.0</v>
+        <v>2251.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
       </c>
       <c s="1" r="H50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I50">
         <v>0.0</v>
@@ -1914,25 +1935,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>2251.0</v>
+        <v>161.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
       </c>
       <c s="1" r="H51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I51">
         <v>0.0</v>
@@ -1943,19 +1964,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B52">
-        <v>456010.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>161.0</v>
+        <v>5203.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -1972,19 +1993,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B53">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>5203.0</v>
+        <v>4405.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2001,19 +2022,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B54">
-        <v>233374.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>4405.0</v>
+        <v>32027.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2033,13 +2054,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
         <v>32027.0</v>
@@ -2059,19 +2080,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B56">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>32027.0</v>
+        <v>586.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -2088,25 +2109,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B57">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>586.0</v>
+        <v>1569.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
       </c>
       <c s="1" r="H57">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I57">
         <v>0.0</v>
@@ -2117,19 +2138,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B58">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
-        <v>1569.0</v>
+        <v>31006.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -2138,7 +2159,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="I58">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -2149,13 +2170,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
         <v>31006.0</v>
@@ -2164,10 +2185,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H59">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I59">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -2175,19 +2196,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B60">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
-        <v>31006.0</v>
+        <v>5634.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -2204,19 +2225,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B61">
-        <v>234155.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>5634.0</v>
+        <v>8778.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -2233,19 +2254,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B62">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
-        <v>8778.0</v>
+        <v>2173.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -2262,19 +2283,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B63">
-        <v>234207.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>2173.0</v>
+        <v>520.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -2291,19 +2312,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B64">
-        <v>447069.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>520.0</v>
+        <v>4068.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -2312,35 +2333,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I64">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c s="1" r="A65">
-        <v>2010.0</v>
-      </c>
-      <c s="1" r="B65">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C65">
-        <v>134</v>
-      </c>
-      <c s="1" r="D65">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E65">
-        <v>135</v>
-      </c>
-      <c s="1" r="F65">
-        <v>4068.0</v>
-      </c>
-      <c s="1" r="G65">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H65">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I65">
         <v>0.0</v>
       </c>
     </row>
